--- a/times.xlsx
+++ b/times.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21612" windowHeight="9684"/>
   </bookViews>
   <sheets>
-    <sheet name="local not optimized" sheetId="1" r:id="rId1"/>
-    <sheet name="remote not optimized" sheetId="2" r:id="rId2"/>
+    <sheet name="local " sheetId="1" r:id="rId1"/>
+    <sheet name="remote " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>number of iterations: 10000</t>
   </si>
@@ -94,6 +94,81 @@
   </si>
   <si>
     <t>OPTIMIZED</t>
+  </si>
+  <si>
+    <t>OPTIMIZED &amp; O2 compilation key (target - fast execution)</t>
+  </si>
+  <si>
+    <t>duration milliseconds initialize beliefs 105</t>
+  </si>
+  <si>
+    <t>duration milliseconds sense 70</t>
+  </si>
+  <si>
+    <t>duration milliseconds blur 94</t>
+  </si>
+  <si>
+    <t>duration milliseconds normalize 52</t>
+  </si>
+  <si>
+    <t>duration milliseconds move 64</t>
+  </si>
+  <si>
+    <t>duration milliseconds initialize beliefs 7.211</t>
+  </si>
+  <si>
+    <t>duration milliseconds sense 11.525</t>
+  </si>
+  <si>
+    <t>duration milliseconds blur 38.553</t>
+  </si>
+  <si>
+    <t>duration milliseconds normalize 11.598</t>
+  </si>
+  <si>
+    <t>duration milliseconds move 7.446</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>original with O3 compiler key</t>
+  </si>
+  <si>
+    <t>duration milliseconds initialize beliefs 12.403</t>
+  </si>
+  <si>
+    <t>duration milliseconds sense 17.287</t>
+  </si>
+  <si>
+    <t>duration milliseconds blur 42.433</t>
+  </si>
+  <si>
+    <t>duration milliseconds normalize 14.055</t>
+  </si>
+  <si>
+    <t>duration milliseconds move 14.888</t>
+  </si>
+  <si>
+    <t>OPTIMIZED &amp; O3</t>
+  </si>
+  <si>
+    <t>duration milliseconds initialize beliefs 2.435</t>
+  </si>
+  <si>
+    <t>duration milliseconds sense 5.396</t>
+  </si>
+  <si>
+    <t>duration milliseconds blur 19.294</t>
+  </si>
+  <si>
+    <t>duration milliseconds normalize 2.421</t>
+  </si>
+  <si>
+    <t>duration milliseconds move 3.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original </t>
   </si>
 </sst>
 </file>
@@ -129,8 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,154 +489,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="5" width="35.44140625" customWidth="1"/>
+    <col min="2" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>579</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>986</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1971</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>813</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>804</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>